--- a/webScrapping/espn_scrapper/IPL/Kings XI Punjab/Mandeep Singh.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Kings XI Punjab/Mandeep Singh.xlsx
@@ -439,28 +439,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Nov 1 2020</v>
+        <v xml:space="preserve"> Oct 24 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C2" t="str">
-        <v>Super Kings won by 9 wickets (with 7 balls remaining)</v>
+        <v>Kings XI won by 12 runs</v>
       </c>
       <c r="D2" t="str">
         <v>Kings XI Punjab</v>
       </c>
       <c r="E2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F2" t="str">
         <v>Mandeep Singh</v>
       </c>
       <c r="G2" t="str">
+        <v>17</v>
+      </c>
+      <c r="H2" t="str">
         <v>14</v>
-      </c>
-      <c r="H2" t="str">
-        <v>15</v>
       </c>
       <c r="I2" t="str">
         <v>1</v>
@@ -469,18 +469,18 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>93.33</v>
+        <v>121.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 4 2020</v>
+        <v xml:space="preserve"> Nov 1 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>Super Kings won by 10 wickets (with 14 balls remaining)</v>
+        <v>Super Kings won by 9 wickets (with 7 balls remaining)</v>
       </c>
       <c r="D3" t="str">
         <v>Kings XI Punjab</v>
@@ -492,54 +492,54 @@
         <v>Mandeep Singh</v>
       </c>
       <c r="G3" t="str">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H3" t="str">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="str">
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
         <v>0</v>
       </c>
-      <c r="J3" t="str">
-        <v>2</v>
-      </c>
       <c r="K3" t="str">
-        <v>168.75</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Oct 24 2020</v>
+        <v xml:space="preserve"> Oct 4 2020</v>
       </c>
       <c r="B4" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C4" t="str">
-        <v>Kings XI won by 12 runs</v>
+        <v>Super Kings won by 10 wickets (with 14 balls remaining)</v>
       </c>
       <c r="D4" t="str">
         <v>Kings XI Punjab</v>
       </c>
       <c r="E4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F4" t="str">
         <v>Mandeep Singh</v>
       </c>
       <c r="G4" t="str">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H4" t="str">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="str">
-        <v>121.42</v>
+        <v>168.75</v>
       </c>
     </row>
     <row r="5">
